--- a/創建neo4j資料庫/neo4j通路類別.xlsx
+++ b/創建neo4j資料庫/neo4j通路類別.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\創建neo4j資料庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DA860B-87E7-40ED-AF2D-1A99D4C801AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9774F8-52BF-40AA-B843-09222F7BDB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6108" yWindow="708" windowWidth="16920" windowHeight="8520" xr2:uid="{0202DF2D-DE02-4094-94A2-9B2FD4A67312}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0202DF2D-DE02-4094-94A2-9B2FD4A67312}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -195,6 +195,14 @@
   </si>
   <si>
     <t>海外</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含3C</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,10 +275,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4326419C-B4C1-4C40-AEE7-9DA61405FB55}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -599,21 +607,24 @@
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -621,71 +632,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -693,77 +704,80 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>

--- a/創建neo4j資料庫/neo4j通路類別.xlsx
+++ b/創建neo4j資料庫/neo4j通路類別.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\創建neo4j資料庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9774F8-52BF-40AA-B843-09222F7BDB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE8BD34-08FA-4C56-8101-E7FD2EDF9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0202DF2D-DE02-4094-94A2-9B2FD4A67312}"/>
   </bookViews>
@@ -56,10 +56,6 @@
     <t>嬰幼兒用品</t>
   </si>
   <si>
-    <t>國內餐飲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"日本", "韓國", "新加坡", "泰國", "國外餐飲",</t>
   </si>
   <si>
@@ -203,6 +199,10 @@
   </si>
   <si>
     <t>包含3C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐廳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -597,14 +597,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4326419C-B4C1-4C40-AEE7-9DA61405FB55}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -615,12 +616,12 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1"/>
     </row>
@@ -639,147 +640,147 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/創建neo4j資料庫/neo4j通路類別.xlsx
+++ b/創建neo4j資料庫/neo4j通路類別.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YiChing\Desktop\project\創建neo4j資料庫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE8BD34-08FA-4C56-8101-E7FD2EDF9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04126EE5-5326-4560-AF09-C411724510FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0202DF2D-DE02-4094-94A2-9B2FD4A67312}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="類別" sheetId="1" r:id="rId1"/>
+    <sheet name="類別vs店家" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
   <si>
     <t>category</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +48,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>"保費", "所得稅", "地價稅", "牌照稅", "房屋稅", "燃料稅"</t>
   </si>
   <si>
@@ -59,9 +57,6 @@
     <t>"日本", "韓國", "新加坡", "泰國", "國外餐飲",</t>
   </si>
   <si>
-    <t>        "中國", "香港", "澳門"</t>
-  </si>
-  <si>
     <t>書店</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -98,34 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>"民宿", "青年旅館", "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>連鎖飯店</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>旅行社</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -203,6 +170,393 @@
   </si>
   <si>
     <t>餐廳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和泰集團</t>
+  </si>
+  <si>
+    <t>餐廳</t>
+  </si>
+  <si>
+    <t>"小獅王辛巴", "MARURU", "cipu喜舖", "麗嬰房"</t>
+  </si>
+  <si>
+    <t>"王品牛排", "tasty西堤牛排", "丰龢和牛涮", "肉次方燒肉放題", "oh_my原燒",</t>
+  </si>
+  <si>
+    <t>"hotai購商城購物", "長源汽車", "和泰產險"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"爭鮮迴轉壽司"</t>
+  </si>
+  <si>
+    <t>"和牛涮", "尬鍋台式潮鍋", "聚北海道昆布鍋", "石二鍋", "青花驕",</t>
+  </si>
+  <si>
+    <t>"_12MINI", "陶板屋", "藝奇和牛岩板焼", "夏慕尼新香榭鐵板燒", "品田牧場",</t>
+  </si>
+  <si>
+    <t>"享鴨", "hot7鐵板燒", "莆田", "築間幸福鍋物", "燒肉smile",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"有之和牛鍋物放題", "本格和牛燒肉放題", "繪馬別邸", "瓦城泰國料理", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"非常泰概念餐坊", "_1010湘", "大心新泰式麵食", "時時香RICE_BAR", "YABI_KITCHEN", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"月月THAI_BBQ", "樂子The_Dinner", "茹絲葵經典牛排館", "屋馬燒肉", "solo_pasta義大利麵", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"俺達の肉屋_日本和牛專門店", "鹽之華", "廚房有雞花雕雞", "碳佐麻里精品燒肉", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"与玥樓頂級粵菜", "RAW", "山海樓", "金蓬萊遵古台菜", "老新台菜", </t>
+  </si>
+  <si>
+    <t>"欣葉台菜", "欣葉小聚", "欣葉鐘菜", "NAGOMI和食饗宴", "欣葉日本料理",</t>
+  </si>
+  <si>
+    <t>"欣葉SHABUSHABU", "咖哩匠", "欣葉生活廚房", "paparich金爸爸", "唐點小聚",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"勝博殿", "大戶屋", "沃克牛排", "金色三麥", </t>
+  </si>
+  <si>
+    <t>"台北萬豪酒店", "君悅酒店", "台北遠東香格里拉", "台南遠東香格里拉", "中山招待所",</t>
+  </si>
+  <si>
+    <t>"高雄萬豪酒店", "台北寒舍艾美酒店", "台北美福大飯店", "台北晶華酒店", "文華東方酒店",</t>
+  </si>
+  <si>
+    <t>"維多麗亞酒店", "漢來名人坊", "瑞穗天合國際觀光酒店", "JR東日本大飯店", "台北美食地標Mega50",</t>
+  </si>
+  <si>
+    <t>"新北美食地標Mega50", "新竹國賓大飯店", "林酒店", "高雄林皇宮", "台中長榮桂冠酒店",</t>
+  </si>
+  <si>
+    <t>"大地酒店", "台北國泰萬怡酒店", "台北六福萬怡酒店", "寒舍艾麗酒店", "台北新板希爾頓酒店",</t>
+  </si>
+  <si>
+    <t>"台北W飯店", "台北君悅酒店", "台中日月千禧酒店", "君品酒店",</t>
+  </si>
+  <si>
+    <t>"台北福華大飯店", "新竹福華大飯店", "台中福華大飯店",</t>
+  </si>
+  <si>
+    <t>"溪頭福華渡假飯店", "高雄福華大飯店", "石門水庫福華渡假飯店",</t>
+  </si>
+  <si>
+    <t>"墾丁福華渡假飯店", "漢來大飯店"</t>
+  </si>
+  <si>
+    <t>"漢堡王", "鬍鬚張", "麥當勞", "星巴克", "TeaTop台灣第一味",</t>
+  </si>
+  <si>
+    <t>"康青龍", "萬波島嶼紅茶", "貢茶", "赤鬼炙燒牛排", "misterdonut",</t>
+  </si>
+  <si>
+    <t>"toyota豐田", "Lexus凌志", "yoxi計程車", "iRent",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油站</t>
+  </si>
+  <si>
+    <t>台塑關係企業</t>
+  </si>
+  <si>
+    <t>娛樂</t>
+  </si>
+  <si>
+    <t>停車場</t>
+  </si>
+  <si>
+    <t>超市</t>
+  </si>
+  <si>
+    <t>連鎖飯店</t>
+  </si>
+  <si>
+    <t>住宿</t>
+  </si>
+  <si>
+    <t>訂房平台</t>
+  </si>
+  <si>
+    <t>"遠東SOGO百貨", "太平洋百貨", "新光三越", "SKM_Park",</t>
+  </si>
+  <si>
+    <t>"遠東百貨", "Big_City遠東巨城購物中心", "微風廣場", "誠品生活",</t>
+  </si>
+  <si>
+    <t>"globalmall環球購物中心", "CITYLINK", "BELLAVITA",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"統一時代百貨", "台北101", "ATT_4_FUN", "明曜百貨", </t>
+  </si>
+  <si>
+    <t>"京站時尚廣場", "德安百貨", "夢時代", "大立百貨",</t>
+  </si>
+  <si>
+    <t>"美麗華百樂園", "大葉高島屋百貨", "遠企購物中心",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"比漾廣場", "大江國際購物中心","中友百貨", "廣三SOGO", </t>
+  </si>
+  <si>
+    <t>"Tiger_City", "勤美誠品綠園道", "金典綠園道商場", "park2草悟廣場",</t>
+  </si>
+  <si>
+    <t>"大魯閣新時代", "耐斯廣場", "南紡購物中心",</t>
+  </si>
+  <si>
+    <t>"大統百貨", "漢神百貨", "漢神巨蛋", "屏東太平洋百貨",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"林口MITSUI_OUTLET_PARK", "台中港MITSUI_OUTLET_PARK", </t>
+  </si>
+  <si>
+    <t>"台南MITSUI_OUTLET_PARK","日曜天地", "三創生活園區", "_6_Plaza廣場",</t>
+  </si>
+  <si>
+    <t>"台中Mitsui_Shopping_Park_LaLaport", "禮客", "義大世界購物廣場", "華泰名品城",</t>
+  </si>
+  <si>
+    <t>百貨公司</t>
+  </si>
+  <si>
+    <t>電信</t>
+  </si>
+  <si>
+    <t>外送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藥妝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"讀墨電子書READMOO"</t>
+  </si>
+  <si>
+    <t>影音遊戲</t>
+  </si>
+  <si>
+    <t>電商購物</t>
+  </si>
+  <si>
+    <t>電子支付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"天下雜誌"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"神腦國際senao"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飛機航空公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"中國", "香港", "澳門"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"金石堂", "金玉堂", "誠品", "墊腳石", "紀伊國屋",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"法雅客", "博客來", "敦煌書局", "三民書局", "商業週刊",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"台灣中油", "全國加油站", "台亞", "西歐加油站", "速邁樂加油站"</t>
+  </si>
+  <si>
+    <t>"Gogoro", "USPACE", "UDRIVE", "WeMo", "iRent", "GoShare"</t>
+  </si>
+  <si>
+    <t>"台塑生醫", "長庚生技", "台塑購物網", "台塑網旅行社"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"錢櫃KTV", "好樂迪KTV", "星聚點KTV", "享溫馨KTV", </t>
+  </si>
+  <si>
+    <t>"國賓影城", "威秀影城", "ShowTimes秀泰影城"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"城市車旅", "嘟嘟房", "台灣聯通", "路邊停車"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"家樂福", "全聯福利中心", "大潤發", "大買家", "愛買",</t>
+  </si>
+  <si>
+    <t>"喜互惠", "楓康", "Mia_Cbon", "心樸市集", "棉花田生機園地",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"好市多Costco", "聖德科斯"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"墾丁福華渡假飯店", "漢來大飯店", "台中金典酒店"</t>
+  </si>
+  <si>
+    <t>"民宿", "青年旅館", "飯店"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ezTravel易遊網", "雄獅旅遊","可樂旅遊", "東南旅遊", "五福旅遊",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>"燦星旅遊", "山富旅遊", "長汎假期","鳳凰旅行社", "Ezfly易飛網",</t>
+  </si>
+  <si>
+    <t>"理想旅遊", "永利旅行社", "三賀旅行社", "台塑網旅行社"</t>
+  </si>
+  <si>
+    <t>"KKday", "Agoda", "KLOOK", "Airbnb", "Hotels_com",</t>
+  </si>
+  <si>
+    <t>"Expedia", "Booking_com", "Trip_com", "AsiaYo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"台灣大哥大", "中華電信", "遠傳", "台灣之星", "亞太", </t>
+  </si>
+  <si>
+    <t>"cosmed康是美", "poya寶雅", "屈臣氏", "日藥本舖", "tomod_s", "松本清", "DHC"</t>
+  </si>
+  <si>
+    <t>"Uber_Eats", "foodpanda", "foodomo", "inline"</t>
+  </si>
+  <si>
+    <t>"SevenEleven711統一超商", "全家FamilyMart", "萊爾富", "OK", "美廉社"</t>
+  </si>
+  <si>
+    <t>"小北百貨", "poya寶雅", "ikea宜家家居", "特力屋", "muji無印良品",</t>
+  </si>
+  <si>
+    <t>"FunNow", "拍享券", "一起寄", "九乘九文具專家",</t>
+  </si>
+  <si>
+    <t>"卡多摩嬰童館", "Wstyle", "咕咕G寵物城", "貓狗大棧寵物百貨",</t>
+  </si>
+  <si>
+    <t>"SofyDog蘇菲狗寵物精品", "寵物公園", "凱朵寵物美容沙龍", "貓狗隊長",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"燦坤", "全國電子", "順發3c", "三井3c", "大同3c" </t>
+  </si>
+  <si>
+    <t>"Google_Play", "Disney_Plus", "Netflix", "Spotify", "KKBOX", "KKTV",</t>
+  </si>
+  <si>
+    <t>"App_Store", "Apple_Music", "iCloud", "MyVideo", "friday影音",</t>
+  </si>
+  <si>
+    <t>"凱擘", "PlayStation", "Nintendo", "Steam",</t>
+  </si>
+  <si>
+    <t>"Bandai萬代南夢宮遊戲", "Blizzard暴雪", "Electronic_arts",</t>
+  </si>
+  <si>
+    <t>"Epic_games_store", "GASH", "Garena", "MyCard", "Nintendo",</t>
+  </si>
+  <si>
+    <t>"Square_enix", "Ubisoft", "Xbox",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"appleTV", "CATCHPLAY", "iTunes", "LINETV", </t>
+  </si>
+  <si>
+    <t>"LiTV", "Youtube_Premium", "Amazon_Prime_Video",</t>
+  </si>
+  <si>
+    <t>"台灣角川官方網站", "尖端網路書店", "青文出版社", "長鴻新漫網",</t>
+  </si>
+  <si>
+    <t>"台灣東販出版社", "東立電子書", "動畫瘋", "Booklive", "BOOKWALKER",</t>
+  </si>
+  <si>
+    <t>"Kakao_Webtoon", "LINE_WEBTOON","POCKET_COMICS", "讀墨電子書READMOO"</t>
+  </si>
+  <si>
+    <t>"udn售票", "iNDIEVOX售票", "KKTIX售票", "ibon售票",</t>
+  </si>
+  <si>
+    <t>"tixcraft拓元售票", "FamiTicket全網購票", "OPENTIX兩廳院文化生活",</t>
+  </si>
+  <si>
+    <t>"中信兄弟售票網", "年代售票", "寬宏售票"</t>
+  </si>
+  <si>
+    <t>"蝦皮購物", "momo", "pchome線上購物", "yahoo奇摩購物中心", "小樹購",</t>
+  </si>
+  <si>
+    <t>"蝦皮商城", "amazon", "淘寶", "天貓", "博客來",</t>
+  </si>
+  <si>
+    <t>"超級商城", "myfone購物", "udn買東西", "pchome商店街",</t>
+  </si>
+  <si>
+    <t>"樂天", "friday購物", "生活市集", "yahoo超級商城",</t>
+  </si>
+  <si>
+    <t>"松果購物", "citiesocial找好東西", "zalora", "shopback", "yahoo拍賣",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"東森購物", "森森", "viva", "PayEasy", "東京著衣", "天母嚴選", </t>
+  </si>
+  <si>
+    <t>"OB嚴選", "lativ", "紅陽科技", "綠界科技", "Gomaji"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"歐付寶", "橘子支付", "ezPay簡單付", "街口支付", "全盈_PAY", "全支付" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"PChome國際連", "一卡通Money", "悠遊付", "icash_Pay", "linepay", </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Apple_Pay", "Samsung_Pay", "Google_Pay", "台灣Pay", "玉山Wallet", </t>
+  </si>
+  <si>
+    <t>"Hami_Pay", "open錢包", "中油pay", "和泰pay"</t>
+  </si>
+  <si>
+    <t>"高鐵", "計程車", "公車", "台鐵", "捷運",</t>
+  </si>
+  <si>
+    <t>"Uber", "LINE_TAXI", "yoxi計程車", "台灣大車隊", "大都會計程車",</t>
+  </si>
+  <si>
+    <t>"和運租車", "iRent", "格上租車", "中租租車", "AVIS租車",</t>
+  </si>
+  <si>
+    <t>"ipass一卡通", "悠遊卡"</t>
+  </si>
+  <si>
+    <t>"虎航", "長榮航空", "華航", "星宇", "立榮", "華信"</t>
+  </si>
+  <si>
+    <t>"台北遠東香格里拉", "台南遠東香格里拉", "新竹國賓大飯店", "馥蘭朵烏來渡假酒店",</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"馥蘭朵墾丁渡假酒店", "馥森里山藝術生態園", "馥森阪治Trio", "花蓮理想大地", </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -236,11 +590,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei Light"/>
+      <family val="2"/>
       <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -277,6 +630,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -595,192 +954,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4326419C-B4C1-4C40-AEE7-9DA61405FB55}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -791,4 +1133,903 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352286E1-A31A-4544-A1A3-3571923DB57A}">
+  <dimension ref="A1:B108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="107" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1AF077-C088-4F0D-85DF-4B2208025D8F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>